--- a/AppInventario/files/inventario1.xlsx
+++ b/AppInventario/files/inventario1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -460,17 +460,77 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00110012</t>
+          <t>00010012</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00010012</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>00010012</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>00110012</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>00110012</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>50011292</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>50111011</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
